--- a/docs/schedule.xlsx
+++ b/docs/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\traeg\Documents\CS461\404notfoundproj\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8508DFD-9221-4861-95C8-C904E1151B59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04520CF6-DD35-40A5-9EF2-4A7F1FE9D50D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,15 +738,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -758,6 +749,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,10 +978,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1016,7 @@
     <col min="29" max="29" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1032,52 +1034,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="54" t="s">
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="54" t="s">
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="54" t="s">
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="54" t="s">
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="54" t="s">
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="56"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="65"/>
+    </row>
+    <row r="4" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -1164,7 +1166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>0.29166666666666669</v>
       </c>
@@ -1197,7 +1199,7 @@
       <c r="AB5" s="14"/>
       <c r="AC5" s="17"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>0.3125</v>
       </c>
@@ -1230,7 +1232,7 @@
       <c r="AB6" s="14"/>
       <c r="AC6" s="17"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>0.33333333333333331</v>
       </c>
@@ -1263,7 +1265,7 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="17"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>0.33333333333333331</v>
       </c>
@@ -1296,7 +1298,7 @@
       <c r="AB8" s="14"/>
       <c r="AC8" s="17"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>0.35416666666666669</v>
       </c>
@@ -1329,7 +1331,7 @@
       <c r="AB9" s="14"/>
       <c r="AC9" s="17"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>0.375</v>
       </c>
@@ -1362,7 +1364,7 @@
       <c r="AB10" s="14"/>
       <c r="AC10" s="17"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>0.39583333333333331</v>
       </c>
@@ -1395,7 +1397,7 @@
       <c r="AB11" s="14"/>
       <c r="AC11" s="17"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>0.41666666666666669</v>
       </c>
@@ -1428,7 +1430,7 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="17"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>0.4375</v>
       </c>
@@ -1461,7 +1463,7 @@
       <c r="AB13" s="14"/>
       <c r="AC13" s="17"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>0.45833333333333331</v>
       </c>
@@ -1494,7 +1496,7 @@
       <c r="AB14" s="14"/>
       <c r="AC14" s="17"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>0.47916666666666669</v>
       </c>
@@ -1527,7 +1529,7 @@
       <c r="AB15" s="14"/>
       <c r="AC15" s="17"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>0.5</v>
       </c>
@@ -1536,7 +1538,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="66"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="16"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
@@ -1560,7 +1562,7 @@
       <c r="AB16" s="14"/>
       <c r="AC16" s="17"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>0.52083333333333337</v>
       </c>
@@ -1593,7 +1595,7 @@
       <c r="AB17" s="14"/>
       <c r="AC17" s="17"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -1634,7 +1636,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="67"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
@@ -1663,11 +1665,11 @@
       <c r="A20" s="41">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="57"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
@@ -1696,11 +1698,11 @@
       <c r="A21" s="41">
         <v>0.10416666666666667</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
@@ -1758,7 +1760,7 @@
       <c r="AB22" s="14"/>
       <c r="AC22" s="29"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>0.14583333333333334</v>
       </c>
@@ -1791,7 +1793,7 @@
       <c r="AB23" s="14"/>
       <c r="AC23" s="29"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>0.16666666666666666</v>
       </c>
@@ -1824,7 +1826,7 @@
       <c r="AB24" s="14"/>
       <c r="AC24" s="29"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>0.1875</v>
       </c>
@@ -1857,7 +1859,7 @@
       <c r="AB25" s="14"/>
       <c r="AC25" s="29"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>0.20833333333333334</v>
       </c>
@@ -1890,7 +1892,7 @@
       <c r="AB26" s="14"/>
       <c r="AC26" s="29"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>0.22916666666666666</v>
       </c>
@@ -1923,7 +1925,7 @@
       <c r="AB27" s="14"/>
       <c r="AC27" s="29"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>0.25</v>
       </c>
@@ -1956,7 +1958,7 @@
       <c r="AB28" s="14"/>
       <c r="AC28" s="29"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>0.27083333333333331</v>
       </c>
@@ -1989,7 +1991,7 @@
       <c r="AB29" s="14"/>
       <c r="AC29" s="29"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>0.29166666666666669</v>
       </c>
@@ -2022,7 +2024,7 @@
       <c r="AB30" s="14"/>
       <c r="AC30" s="29"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>0.3125</v>
       </c>
@@ -2055,7 +2057,7 @@
       <c r="AB31" s="14"/>
       <c r="AC31" s="29"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>0.33333333333333331</v>
       </c>
@@ -2088,7 +2090,7 @@
       <c r="AB32" s="14"/>
       <c r="AC32" s="29"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>0.35416666666666669</v>
       </c>
@@ -2121,7 +2123,7 @@
       <c r="AB33" s="14"/>
       <c r="AC33" s="29"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="44">
         <v>0.375</v>
       </c>
@@ -2154,23 +2156,50 @@
       <c r="AB34" s="37"/>
       <c r="AC34" s="38"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X35" s="52" t="s">
+    <row r="35" spans="1:32" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="67" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X36" s="52" t="s">
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="67"/>
+    </row>
+    <row r="36" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="X36" s="67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X38" s="53" t="s">
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+    </row>
+    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="66" t="s">
         <v>18</v>
       </c>
-    </row>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+    </row>
+    <row r="38" spans="1:32" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="K37:U37"/>
+    <mergeCell ref="X35:AC35"/>
+    <mergeCell ref="X36:AF36"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="B3:E3"/>
